--- a/src/main/resources/CCMS_THIRD_PARTY_REPORT.xlsx
+++ b/src/main/resources/CCMS_THIRD_PARTY_REPORT.xlsx
@@ -8,19 +8,13 @@
   <sheets>
     <sheet name="MAIN" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="MAIN WOFF MIG ERROR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="WOFF Mig Error" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Reconciliation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Age Profile" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Civil Movement Report" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="All Debts by Type Summary" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Correctly linked Civil Cases" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Civil Debt Exceptions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Third Party Cash Receipt Income" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="CCMS_CASE_TOTALS_TRUE" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="FIXED_CASES_EXP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="CCMS_CIVIL_EXCEPTIONS_EXP" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="CCMS_DEBT_SUMMARY_C_EXP" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="CCMS_DEBT_SUMMARY_B_EXP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Reconciliation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Age Profile" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Civil Movement Report" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="All Debts by Type Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Correctly linked Civil Cases" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Civil Debt Exceptions" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Third Party Cash Receipt Income" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -1642,2703 +1636,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="3" max="4"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="17" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="3.7109375" customWidth="1" min="7" max="7"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Contributions</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Damages</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Revocation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Statutory charge</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Total third party cash receipt income</t>
-        </is>
-      </c>
-      <c r="B4">
-        <f>'Correctly linked Civil Cases'!#REF!</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>'Correctly linked Civil Cases'!#REF!</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>'Correctly linked Civil Cases'!#REF!</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>'Correctly linked Civil Cases'!#REF!</f>
-        <v/>
-      </c>
-      <c r="F4">
-        <f>'Correctly linked Civil Cases'!#REF!</f>
-        <v/>
-      </c>
-      <c r="H4">
-        <f>SUM(B4:G4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Total on cases with no final bill</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!EY:EY)</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FF:FF)</f>
-        <v/>
-      </c>
-      <c r="D6">
-        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FM:FM)</f>
-        <v/>
-      </c>
-      <c r="E6">
-        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FT:FT)</f>
-        <v/>
-      </c>
-      <c r="F6">
-        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!GA:GA)</f>
-        <v/>
-      </c>
-      <c r="H6">
-        <f>SUM(B6:G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total on cases with a final bill</t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>B4-B6</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>C4-C6</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>D4-D6</f>
-        <v/>
-      </c>
-      <c r="E7">
-        <f>E4-E6</f>
-        <v/>
-      </c>
-      <c r="F7">
-        <f>F4-F6</f>
-        <v/>
-      </c>
-      <c r="H7">
-        <f>SUM(B7:G7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Volume of cases with a final bill and third party income</t>
-        </is>
-      </c>
-      <c r="B9">
-        <f>COUNTIF(CCMS_CASE_TOTALS_TRUE!HB:HB,"&gt;0")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:HU1"/>
-  <sheetViews>
-    <sheetView topLeftCell="CV1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="2" max="3"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="14.140625" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="17" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="15.42578125" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="24" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="20" bestFit="1" customWidth="1" min="26" max="26"/>
-    <col width="21" bestFit="1" customWidth="1" min="27" max="27"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="28" max="28"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
-    <col width="21" bestFit="1" customWidth="1" min="30" max="30"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" min="31" max="31"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="20.7109375" bestFit="1" customWidth="1" min="33" max="33"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="34" max="34"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="12" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="37" max="37"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="38" max="38"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="39" max="39"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="40" max="40"/>
-    <col width="22" bestFit="1" customWidth="1" min="41" max="41"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" min="42" max="42"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" min="43" max="43"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="44" max="44"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="45" max="45"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="46" max="46"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="47" max="47"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="48" max="48"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="49" max="49"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="50" max="50"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="51" max="51"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="52" max="52"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="53" max="53"/>
-    <col width="33.28515625" bestFit="1" customWidth="1" min="54" max="54"/>
-    <col width="34.7109375" bestFit="1" customWidth="1" min="55" max="55"/>
-    <col width="31.28515625" bestFit="1" customWidth="1" min="56" max="56"/>
-    <col width="33.140625" bestFit="1" customWidth="1" min="57" max="57"/>
-    <col width="37.7109375" bestFit="1" customWidth="1" min="58" max="58"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="59" max="59"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="60" max="60"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="61" max="61"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="62" max="62"/>
-    <col width="24.85546875" bestFit="1" customWidth="1" min="63" max="63"/>
-    <col width="25.7109375" bestFit="1" customWidth="1" min="64" max="64"/>
-    <col width="21.5703125" bestFit="1" customWidth="1" min="65" max="65"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="66" max="66"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="67" max="67"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="68" max="68"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="69" max="69"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="70" max="70"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="71" max="71"/>
-    <col width="29" bestFit="1" customWidth="1" min="72" max="72"/>
-    <col width="25" bestFit="1" customWidth="1" min="73" max="73"/>
-    <col width="21" bestFit="1" customWidth="1" min="74" max="74"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="75" max="75"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="76" max="76"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" min="77" max="77"/>
-    <col width="24" bestFit="1" customWidth="1" min="78" max="78"/>
-    <col width="26.85546875" bestFit="1" customWidth="1" min="79" max="79"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="80" max="80"/>
-    <col width="27.5703125" bestFit="1" customWidth="1" min="81" max="81"/>
-    <col width="28.28515625" bestFit="1" customWidth="1" min="82" max="82"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="83" max="83"/>
-    <col width="27" bestFit="1" customWidth="1" min="84" max="84"/>
-    <col width="23" bestFit="1" customWidth="1" min="85" max="85"/>
-    <col width="24" bestFit="1" customWidth="1" min="86" max="86"/>
-    <col width="26.85546875" bestFit="1" customWidth="1" min="87" max="87"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="88" max="88"/>
-    <col width="24" bestFit="1" customWidth="1" min="89" max="89"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" min="90" max="90"/>
-    <col width="27.7109375" bestFit="1" customWidth="1" min="91" max="91"/>
-    <col width="23.7109375" bestFit="1" customWidth="1" min="92" max="92"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="93" max="93"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="94" max="94"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" min="95" max="95"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="96" max="96"/>
-    <col width="23.140625" bestFit="1" customWidth="1" min="97" max="97"/>
-    <col width="19.140625" bestFit="1" customWidth="1" min="98" max="98"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="99" max="99"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="100" max="100"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="101" max="101"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="102" max="102"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" min="103" max="103"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="104" max="104"/>
-    <col width="23.140625" bestFit="1" customWidth="1" min="105" max="105"/>
-    <col width="19.140625" bestFit="1" customWidth="1" min="106" max="106"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="107" max="107"/>
-    <col width="28" bestFit="1" customWidth="1" min="108" max="108"/>
-    <col width="24" bestFit="1" customWidth="1" min="109" max="109"/>
-    <col width="20" bestFit="1" customWidth="1" min="110" max="110"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="111" max="111"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" min="112" max="112"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="113" max="113"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="114" max="114"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="115" max="115"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="116" max="116"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="117" max="117"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="118" max="118"/>
-    <col width="29.85546875" bestFit="1" customWidth="1" min="119" max="119"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="120" max="120"/>
-    <col width="24" bestFit="1" customWidth="1" min="121" max="121"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="122" max="122"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="123" max="123"/>
-    <col width="22.140625" bestFit="1" customWidth="1" min="124" max="124"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="125" max="125"/>
-    <col width="26.42578125" bestFit="1" customWidth="1" min="126" max="126"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="127" max="127"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" min="128" max="128"/>
-    <col width="21" bestFit="1" customWidth="1" min="129" max="129"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="130" max="130"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" min="131" max="131"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="132" max="132"/>
-    <col width="30.140625" bestFit="1" customWidth="1" min="133" max="133"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="134" max="134"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="135" max="135"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="136" max="136"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="137" max="137"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="138" max="138"/>
-    <col width="22.42578125" bestFit="1" customWidth="1" min="139" max="139"/>
-    <col width="27.85546875" bestFit="1" customWidth="1" min="140" max="140"/>
-    <col width="22.42578125" bestFit="1" customWidth="1" min="141" max="141"/>
-    <col width="22.140625" bestFit="1" customWidth="1" min="142" max="142"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="143" max="143"/>
-    <col width="22.42578125" bestFit="1" customWidth="1" min="144" max="144"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="145" max="145"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="146" max="146"/>
-    <col width="29" bestFit="1" customWidth="1" min="147" max="147"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="148" max="148"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="149" max="149"/>
-    <col width="23.7109375" bestFit="1" customWidth="1" min="150" max="150"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="151" max="151"/>
-    <col width="27.42578125" bestFit="1" customWidth="1" min="152" max="152"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="153" max="153"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" min="154" max="154"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="155" max="155"/>
-    <col width="26" bestFit="1" customWidth="1" min="156" max="156"/>
-    <col width="26.42578125" bestFit="1" customWidth="1" min="157" max="157"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="158" max="158"/>
-    <col width="24" bestFit="1" customWidth="1" min="159" max="159"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="160" max="160"/>
-    <col width="28.28515625" bestFit="1" customWidth="1" min="161" max="161"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="162" max="162"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="163" max="163"/>
-    <col width="23" bestFit="1" customWidth="1" min="164" max="164"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="165" max="165"/>
-    <col width="27.7109375" bestFit="1" customWidth="1" min="166" max="166"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="167" max="167"/>
-    <col width="32" bestFit="1" customWidth="1" min="168" max="168"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="169" max="169"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="170" max="170"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" min="171" max="171"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="172" max="172"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="173" max="173"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="174" max="174"/>
-    <col width="29.85546875" bestFit="1" customWidth="1" min="175" max="175"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="176" max="176"/>
-    <col width="24" bestFit="1" customWidth="1" min="177" max="177"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="178" max="178"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="179" max="179"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" min="180" max="180"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="181" max="181"/>
-    <col width="31" bestFit="1" customWidth="1" min="182" max="182"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="183" max="183"/>
-    <col width="25.140625" bestFit="1" customWidth="1" min="184" max="184"/>
-    <col width="25.7109375" bestFit="1" customWidth="1" min="185" max="185"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="186" max="186"/>
-    <col width="24" bestFit="1" customWidth="1" min="187" max="187"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="188" max="188"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="189" max="189"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="190" max="190"/>
-    <col width="18" bestFit="1" customWidth="1" min="191" max="191"/>
-    <col width="19.140625" bestFit="1" customWidth="1" min="192" max="192"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="193" max="193"/>
-    <col width="21" bestFit="1" customWidth="1" min="194" max="194"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="195" max="195"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="196" max="196"/>
-    <col width="23.7109375" bestFit="1" customWidth="1" min="197" max="197"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="198" max="198"/>
-    <col width="26.42578125" bestFit="1" customWidth="1" min="199" max="199"/>
-    <col width="23" bestFit="1" customWidth="1" min="200" max="200"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" min="201" max="201"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="202" max="202"/>
-    <col width="25.7109375" bestFit="1" customWidth="1" min="203" max="203"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="204" max="204"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="205" max="205"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="206" max="206"/>
-    <col width="23.140625" bestFit="1" customWidth="1" min="207" max="207"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="208" max="208"/>
-    <col width="22.140625" bestFit="1" customWidth="1" min="209" max="209"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="210" max="210"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="211" max="211"/>
-    <col width="26" bestFit="1" customWidth="1" min="212" max="212"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="213" max="213"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="214" max="214"/>
-    <col width="24" bestFit="1" customWidth="1" min="215" max="215"/>
-    <col width="25.140625" bestFit="1" customWidth="1" min="216" max="216"/>
-    <col width="24" bestFit="1" customWidth="1" min="217" max="217"/>
-    <col width="33.5703125" bestFit="1" customWidth="1" min="218" max="218"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" min="219" max="219"/>
-    <col width="30.28515625" bestFit="1" customWidth="1" min="220" max="220"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="221" max="221"/>
-    <col width="34" bestFit="1" customWidth="1" min="222" max="222"/>
-    <col width="22.140625" bestFit="1" customWidth="1" min="223" max="223"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" min="224" max="224"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="225" max="225"/>
-    <col width="32.85546875" bestFit="1" customWidth="1" min="226" max="226"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="227" max="227"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="228" max="228"/>
-    <col width="26.140625" bestFit="1" customWidth="1" min="229" max="229"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MIGRATED_CASE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MIGRATED_FLAG</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_MIGRATED</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CASE_REFERENCE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CCMS_CASE_ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FULL_CASE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CIS_CASE_NUMBER</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISCH_REV_REASON</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DISCH_REV_DATE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>AGE_IN_DAYS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CAT_CODE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_AWARD_DATE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_SEC</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_SEC</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_SEC</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_SEC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_SEC</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_DEBT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AWARD_AMOUNT_OR_VALUATION</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>COST_AWARD_PRECERT_LEGAL_HELP</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>COST_AWARD_PRECERT_PRIVATE</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>COST_AWARD_LSC_RATE_AMOUNT</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>COST_AWARD_MARKET_RATE_AMOUNT</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_DEBT</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_DEBT</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_DEBT</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_LAST_INT_DATE</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>FINAL_BILL_DATE</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_RECOVERABLE</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>LEGAL_HELP</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_DEBT</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_ADJ</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_ADJ_LOW</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_REC</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_CM</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_WO</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_STATCHG_PRIN_WD</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_SIMPLE_REMAINDER</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>REVOKE_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_CONTRIBS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_COSTS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DAMAGES_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_REVOKE_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_STATCHG_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_UNAL_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_CONTRIBS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_COSTS_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_DAMAGES_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>THIRD_REVOKE_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>THRID_STATCHG_DEBT_BAL</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>FINAL_BILL</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CHARGE_BAL</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CHARGE_BAL</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CHARGE_BAL</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>REVOKE_CHARGE_BAL</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CHARGE_BAL</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>POSSIBLE_REFUND_DUE</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_MADE</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_THIRD_CONTRIBS</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_THIRD_COSTS</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_THIRD_DAMAGES</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_THIRD_REVOKE</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_THIRD_STATCHG</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_CONTRIBS</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_CONTRIBS_CHARGES</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_COSTS</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_COSTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_DAMAGES</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_DAMAGES_CHARGES</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_REVOKE</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_REVOKE_CHARGES</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_STATCHG</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>REFUNDS_LAA_STATCHG_CHARGES</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>UNEXP_REFUND</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_LAA_REFUND</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_EXPLAINED_REFUND</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:DB1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="2" max="3"/>
-    <col width="27.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="27.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="14.140625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="15.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="24" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="20" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="21" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" min="26" max="26"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="27" max="27"/>
-    <col width="20.7109375" bestFit="1" customWidth="1" min="28" max="28"/>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="29" max="29"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="30" max="30"/>
-    <col width="12" bestFit="1" customWidth="1" min="31" max="31"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="33" max="33"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="34" max="34"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="22" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="37" max="37"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="38" max="38"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="39" max="39"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" min="40" max="40"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" min="41" max="41"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="42" max="42"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="43" max="43"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="44" max="44"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="45" max="45"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="46" max="46"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="47" max="47"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="48" max="48"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="49" max="49"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="50" max="50"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="51" max="51"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="52" max="52"/>
-    <col width="24.85546875" bestFit="1" customWidth="1" min="53" max="53"/>
-    <col width="25.7109375" bestFit="1" customWidth="1" min="54" max="54"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="55" max="55"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="56" max="56"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="57" max="57"/>
-    <col width="21.5703125" bestFit="1" customWidth="1" min="58" max="58"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="59" max="59"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="60" max="60"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="61" max="61"/>
-    <col width="29" bestFit="1" customWidth="1" min="62" max="62"/>
-    <col width="25" bestFit="1" customWidth="1" min="63" max="63"/>
-    <col width="21" bestFit="1" customWidth="1" min="64" max="64"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="65" max="65"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="66" max="66"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" min="67" max="67"/>
-    <col width="24" bestFit="1" customWidth="1" min="68" max="68"/>
-    <col width="26.85546875" bestFit="1" customWidth="1" min="69" max="69"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="70" max="70"/>
-    <col width="27.5703125" bestFit="1" customWidth="1" min="71" max="71"/>
-    <col width="28.28515625" bestFit="1" customWidth="1" min="72" max="72"/>
-    <col width="24" bestFit="1" customWidth="1" min="73" max="73"/>
-    <col width="26.85546875" bestFit="1" customWidth="1" min="74" max="74"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="75" max="75"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="76" max="76"/>
-    <col width="27" bestFit="1" customWidth="1" min="77" max="77"/>
-    <col width="23" bestFit="1" customWidth="1" min="78" max="78"/>
-    <col width="24" bestFit="1" customWidth="1" min="79" max="79"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" min="80" max="80"/>
-    <col width="27.7109375" bestFit="1" customWidth="1" min="81" max="81"/>
-    <col width="23.7109375" bestFit="1" customWidth="1" min="82" max="82"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="83" max="83"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="84" max="84"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" min="85" max="85"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="86" max="86"/>
-    <col width="23.140625" bestFit="1" customWidth="1" min="87" max="87"/>
-    <col width="19.140625" bestFit="1" customWidth="1" min="88" max="88"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="89" max="89"/>
-    <col width="23.140625" bestFit="1" customWidth="1" min="90" max="90"/>
-    <col width="19.140625" bestFit="1" customWidth="1" min="91" max="91"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="92" max="92"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" min="93" max="93"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="94" max="94"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="95" max="95"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" min="96" max="96"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="97" max="97"/>
-    <col width="28" bestFit="1" customWidth="1" min="98" max="98"/>
-    <col width="24" bestFit="1" customWidth="1" min="99" max="99"/>
-    <col width="20" bestFit="1" customWidth="1" min="100" max="100"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="101" max="101"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" min="102" max="102"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="103" max="103"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="104" max="104"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="105" max="105"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="106" max="106"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MIGRATED_CASE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MIGRATED_FLAG</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_MIGRATED</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CASE_REFERENCE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CCMS_CASE_ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FULL_CASE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CIS_CASE_NUMBER</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_SEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_SEC</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_SEC</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_SEC</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_SEC</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_DEBT</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRIBS_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>COSTS_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_DEBT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>DAMAGES_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_DEBT</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>REVOCATION_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_DEBT</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_TOTAL</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_CHARGES</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_TOTAL</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_CHARGES</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_ADJ_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_TOTAL</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_CHARGES</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_REC_TOTAL</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_RECEIPTS_CHARGES</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_RECEIPTS_DEBT</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_TOTAL</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_CHARGES</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>STATCHG_LAST_INT_DATE</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>FINAL_BILL_DATE</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_RECOVERABLE</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>LEGAL_HELP</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet16">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD1"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="8" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="24.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="24" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="58" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="12" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="18" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="9.85546875" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="26" max="26"/>
-    <col width="14" bestFit="1" customWidth="1" min="27" max="27"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="28" max="28"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="30" max="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TRX_NUMBER</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TRX_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CIS_CASE_NO_ON_TRANS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SECURED</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CIS_CASE_NO_ON_PARTY</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CCMS_CASE_ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CCMS_CASE_NUMBER</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CCMS_CASE_MIGRATED</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TRANS_MIGRATED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TRANS_CODE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TRANS_DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DEBT_TYPE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_SCHEME</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ATTACHED_TO_CASE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TOTAL</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CM_DEBT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>CM_CHARGE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CM_UNAPPLIED</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_CHARGE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>WD_DEBT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>WD_CHARGE</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>WO_DEBT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WO_CHARGE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_DEBT</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_CHARGE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_UNAPPLIED</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>LAST_INT_DATE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet17">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="58" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="22.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="27" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="27.7109375" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="25.140625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21.85546875" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="23" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="26" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" min="21" max="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_SCHEME</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ATTACHED_TO_CASE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>LAA_DEBT_TYPE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TRANS_CODE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TRANS_DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>COUNT_OF_TRX_ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_DEBT_TOTAL</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_CM_DEBT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_CM_CHARGE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_CM_UNAPPLIED</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_ADJUST_DEBT</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_ADJUST_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_ADJUST_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_ADJUST_CHARGE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_WD_DEBT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_WD_CHARGE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_WO_DEBT</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_WO_CHARGE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_INCOME_DEBT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_INCOME_CHARGE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>SUM_OF_INCOME_UNAPPLIED</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet18">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="70.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="18" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="11" max="13"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="14" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="17" max="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT_TYPE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CLASS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEBT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CM_DEBT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CM_CHARGE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CM_UNAPPLIED</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT_GRE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_DEBT_LOW</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ADJUST_CHARGE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>WO_DEBT</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>WO_CHARGE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>WD_DEBT</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>WD_CHARGE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_DEBT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_CHARGE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>INCOME_UNAPPLIED</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet8">
@@ -4800,37 +2097,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet15">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CASE_REFERENCE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -4866,7 +2137,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="C4" s="13" t="inlineStr">
         <is>
@@ -5091,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet21">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5122,7 +2392,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -5130,7 +2399,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="B5" s="13" t="inlineStr">
         <is>
@@ -6072,13 +3340,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet20">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="B1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -6104,7 +3372,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
@@ -6112,7 +3379,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
@@ -7299,13 +4565,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet10">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="B1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -7336,7 +4602,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
@@ -8771,13 +6036,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet9">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -8952,7 +6217,6 @@
     <col width="25.5703125" bestFit="1" customWidth="1" min="173" max="173"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
@@ -8960,7 +6224,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
@@ -8968,7 +6231,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
@@ -10187,13 +7449,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet11">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -10251,7 +7513,6 @@
     <col width="9.28515625" bestFit="1" customWidth="1" min="83" max="85"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
@@ -10259,8 +7520,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4"/>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
@@ -10268,7 +7527,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
@@ -11215,6 +8473,170 @@
       </c>
       <c r="I43" s="13">
         <f>-I29-I32-I34-I36-I38</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet12">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="17" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="3.7109375" customWidth="1" min="7" max="7"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Damages</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Revocation</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Statutory charge</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total third party cash receipt income</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>'Correctly linked Civil Cases'!#REF!</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>'Correctly linked Civil Cases'!#REF!</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>'Correctly linked Civil Cases'!#REF!</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>'Correctly linked Civil Cases'!#REF!</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>'Correctly linked Civil Cases'!#REF!</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total on cases with no final bill</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!EY:EY)</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FF:FF)</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FM:FM)</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!FT:FT)</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>SUMIF(CCMS_CASE_TOTALS_TRUE!$GV:$GV,"N",CCMS_CASE_TOTALS_TRUE!GA:GA)</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>SUM(B6:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total on cases with a final bill</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>B4-B6</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>C4-C6</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>D4-D6</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>E4-E6</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>F4-F6</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>SUM(B7:G7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Volume of cases with a final bill and third party income</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(CCMS_CASE_TOTALS_TRUE!HB:HB,"&gt;0")</f>
         <v/>
       </c>
     </row>
